--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2870.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2870.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.201162306109563</v>
+        <v>0.546911358833313</v>
       </c>
       <c r="B1">
-        <v>2.013211254921383</v>
+        <v>2.627532958984375</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.133557081222534</v>
       </c>
       <c r="D1">
-        <v>2.034676493432628</v>
+        <v>3.725853204727173</v>
       </c>
       <c r="E1">
-        <v>1.206713404305423</v>
+        <v>1.374119162559509</v>
       </c>
     </row>
   </sheetData>
